--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bois\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F585FB1-85CA-4CA2-86AE-F03261F1C88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBCDB76-0C63-4C50-AE18-9C8CAD8F0B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="445">
   <si>
     <t>path</t>
   </si>
@@ -803,9 +803,6 @@
     <t>12850087</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>12850310</t>
   </si>
   <si>
@@ -942,6 +939,438 @@
   </si>
   <si>
     <t>SLS 38x140 -4.80m</t>
+  </si>
+  <si>
+    <t>galerie/agglomere.png</t>
+  </si>
+  <si>
+    <t>galerie/chevron.png</t>
+  </si>
+  <si>
+    <t>galerie/latte.png</t>
+  </si>
+  <si>
+    <t>galerie/lauan.png</t>
+  </si>
+  <si>
+    <t>galerie/mdf.png</t>
+  </si>
+  <si>
+    <t>galerie/multi-filme.png</t>
+  </si>
+  <si>
+    <t>galerie/osb3.png</t>
+  </si>
+  <si>
+    <t>galerie/poutrelle.png</t>
+  </si>
+  <si>
+    <t>galerie/sls.png</t>
+  </si>
+  <si>
+    <t>galerie/volige.png</t>
+  </si>
+  <si>
+    <t>galerie/unalit-blanc.png</t>
+  </si>
+  <si>
+    <t>galerie/sous-toiture.png</t>
+  </si>
+  <si>
+    <t>OSB12-59x244</t>
+  </si>
+  <si>
+    <t>OSB15-59x244</t>
+  </si>
+  <si>
+    <t>OSB22-59x244</t>
+  </si>
+  <si>
+    <t>OSB18-59x244</t>
+  </si>
+  <si>
+    <t>3mm-122x244</t>
+  </si>
+  <si>
+    <t>3,6mm-122,250</t>
+  </si>
+  <si>
+    <t>5mm-122x250</t>
+  </si>
+  <si>
+    <t>6mm-122x250</t>
+  </si>
+  <si>
+    <t>8mm-122x250</t>
+  </si>
+  <si>
+    <t>10mm-122x250</t>
+  </si>
+  <si>
+    <t>12mm-122x250</t>
+  </si>
+  <si>
+    <t>15mm-122x250</t>
+  </si>
+  <si>
+    <t>18mm-122x250</t>
+  </si>
+  <si>
+    <t>22mm-122x250</t>
+  </si>
+  <si>
+    <t>25mm-122x250</t>
+  </si>
+  <si>
+    <t>4mm-122x244</t>
+  </si>
+  <si>
+    <t>6mm-122x244</t>
+  </si>
+  <si>
+    <t>8mm-122x244</t>
+  </si>
+  <si>
+    <t>12mm-122x244</t>
+  </si>
+  <si>
+    <t>15mm-122x244</t>
+  </si>
+  <si>
+    <t>21mm-122x244</t>
+  </si>
+  <si>
+    <t>18mm-122x244</t>
+  </si>
+  <si>
+    <t>25mm-244x244</t>
+  </si>
+  <si>
+    <t>25mm-122x244</t>
+  </si>
+  <si>
+    <t>22mm-122x244-hydro</t>
+  </si>
+  <si>
+    <t>18mm-122x244-noir</t>
+  </si>
+  <si>
+    <t>18mm-122x244-hydro</t>
+  </si>
+  <si>
+    <t>12mm-122x244-hydro</t>
+  </si>
+  <si>
+    <t>18mm-hydro</t>
+  </si>
+  <si>
+    <t>21mm-hydro</t>
+  </si>
+  <si>
+    <t>30mm-122x244</t>
+  </si>
+  <si>
+    <t>38mm-122x244</t>
+  </si>
+  <si>
+    <t>50mm-122x244</t>
+  </si>
+  <si>
+    <t>4mm-125x250</t>
+  </si>
+  <si>
+    <t>9mm-125x250</t>
+  </si>
+  <si>
+    <t>12mm-125x250</t>
+  </si>
+  <si>
+    <t>15mm-125x250</t>
+  </si>
+  <si>
+    <t>122x250-9mm</t>
+  </si>
+  <si>
+    <t>122x244-12mm</t>
+  </si>
+  <si>
+    <t>18mm-125x250-twin</t>
+  </si>
+  <si>
+    <t>18mm-125x250-betonplex</t>
+  </si>
+  <si>
+    <t>21mm-125x250-anti-slip</t>
+  </si>
+  <si>
+    <t>15mm-125x250-anti-slip</t>
+  </si>
+  <si>
+    <t>18mm-125x250-anti-slip</t>
+  </si>
+  <si>
+    <t>24x38-calib</t>
+  </si>
+  <si>
+    <t>20x40-2,40m</t>
+  </si>
+  <si>
+    <t>20x40-2,70m</t>
+  </si>
+  <si>
+    <t>20x100-2,40m</t>
+  </si>
+  <si>
+    <t>20x100-2,70m</t>
+  </si>
+  <si>
+    <t>20x40-3,00m</t>
+  </si>
+  <si>
+    <t>20x100-3,00m</t>
+  </si>
+  <si>
+    <t>20x40-3,30m</t>
+  </si>
+  <si>
+    <t>20x100-3,30m</t>
+  </si>
+  <si>
+    <t>20x40-3,60m</t>
+  </si>
+  <si>
+    <t>25x40-3,00m</t>
+  </si>
+  <si>
+    <t>25x40-3,60m</t>
+  </si>
+  <si>
+    <t>25x40-4,20m</t>
+  </si>
+  <si>
+    <t>20x100-3,60m</t>
+  </si>
+  <si>
+    <t>20x100-3,90m</t>
+  </si>
+  <si>
+    <t>20x40-3,90m</t>
+  </si>
+  <si>
+    <t>20x40-4,50m</t>
+  </si>
+  <si>
+    <t>20x40-4,20m</t>
+  </si>
+  <si>
+    <t>20x40-4,80m</t>
+  </si>
+  <si>
+    <t>25x100-2,40m</t>
+  </si>
+  <si>
+    <t>50x65-2,40m</t>
+  </si>
+  <si>
+    <t>25x100-3,00m</t>
+  </si>
+  <si>
+    <t>25x100-3,60m</t>
+  </si>
+  <si>
+    <t>25x100-4,20m</t>
+  </si>
+  <si>
+    <t>20x100-4,20m</t>
+  </si>
+  <si>
+    <t>20x100-4,50m</t>
+  </si>
+  <si>
+    <t>50x65-2,70m</t>
+  </si>
+  <si>
+    <t>50x130-2,40m</t>
+  </si>
+  <si>
+    <t>50x130-2,70m</t>
+  </si>
+  <si>
+    <t>50x130-3,00m</t>
+  </si>
+  <si>
+    <t>50x130-3,30m</t>
+  </si>
+  <si>
+    <t>50x130-3,60m</t>
+  </si>
+  <si>
+    <t>50x130-3,90m</t>
+  </si>
+  <si>
+    <t>50x130-4,20m</t>
+  </si>
+  <si>
+    <t>50x130-4,50m</t>
+  </si>
+  <si>
+    <t>65x180-2,40m</t>
+  </si>
+  <si>
+    <t>50x65-3,00m</t>
+  </si>
+  <si>
+    <t>50x65-3,30m</t>
+  </si>
+  <si>
+    <t>50x65-3,60m</t>
+  </si>
+  <si>
+    <t>50x65-3,90m</t>
+  </si>
+  <si>
+    <t>50x65-4,20m</t>
+  </si>
+  <si>
+    <t>50x65-4,50m</t>
+  </si>
+  <si>
+    <t>65x180-3,00m</t>
+  </si>
+  <si>
+    <t>65x180-3,60m</t>
+  </si>
+  <si>
+    <t>65x180-4,20m</t>
+  </si>
+  <si>
+    <t>65x180-4,50m</t>
+  </si>
+  <si>
+    <t>65x180-4,80m</t>
+  </si>
+  <si>
+    <t>38x58-2,40m</t>
+  </si>
+  <si>
+    <t>38x58-2,70m</t>
+  </si>
+  <si>
+    <t>38x58-3,00m</t>
+  </si>
+  <si>
+    <t>38x58-3,60m</t>
+  </si>
+  <si>
+    <t>38x58-3,90m</t>
+  </si>
+  <si>
+    <t>38x58-4,20m</t>
+  </si>
+  <si>
+    <t>38x58-4,50m</t>
+  </si>
+  <si>
+    <t>38x89-2,70</t>
+  </si>
+  <si>
+    <t>38x140-2,40m</t>
+  </si>
+  <si>
+    <t>38x140-2,70m</t>
+  </si>
+  <si>
+    <t>38x140-3,00m</t>
+  </si>
+  <si>
+    <t>38x140-3,60m</t>
+  </si>
+  <si>
+    <t>38x140-4,20m</t>
+  </si>
+  <si>
+    <t>38x140-4,80m</t>
+  </si>
+  <si>
+    <t>38x89-3,00m</t>
+  </si>
+  <si>
+    <t>38x89-3,30m</t>
+  </si>
+  <si>
+    <t>38x89-3,60m</t>
+  </si>
+  <si>
+    <t>38x89-4,20m</t>
+  </si>
+  <si>
+    <t>38x89-4,50m</t>
+  </si>
+  <si>
+    <t>38x89-4,80m</t>
+  </si>
+  <si>
+    <t>Toupret enduit rebouchage bois 330ml</t>
+  </si>
+  <si>
+    <t>Toupret WoodFinish 400g</t>
+  </si>
+  <si>
+    <t>71175280</t>
+  </si>
+  <si>
+    <t>71175275</t>
+  </si>
+  <si>
+    <t>Toupret Hard'wood 1lt</t>
+  </si>
+  <si>
+    <t>71175279</t>
+  </si>
+  <si>
+    <t>Toupret ReparWood 1kg</t>
+  </si>
+  <si>
+    <t>Pate à bois Blanche Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois Chêne moyen Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois Chêne clair Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois noyer Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois Chêne foncé Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois Naturelle Liberon</t>
+  </si>
+  <si>
+    <t>Pate à bois chene clair liberon 80ml</t>
+  </si>
+  <si>
+    <t>31099100</t>
+  </si>
+  <si>
+    <t>31099101</t>
+  </si>
+  <si>
+    <t>31099102</t>
+  </si>
+  <si>
+    <t>31099103</t>
+  </si>
+  <si>
+    <t>31099104</t>
+  </si>
+  <si>
+    <t>31099105</t>
+  </si>
+  <si>
+    <t>31099106</t>
   </si>
 </sst>
 </file>
@@ -951,7 +1380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,6 +1401,19 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1006,7 +1448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1045,6 +1487,51 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1054,7 +1541,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1402,8 +1892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065E4AF0-A4F8-4CE3-9E23-EDCEACB756BD}">
   <dimension ref="A1:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,7 +1902,7 @@
     <col min="2" max="2" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.77734375" style="5" customWidth="1"/>
   </cols>
@@ -1430,7 +1920,7 @@
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -1439,14 +1929,19 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B2" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>341</v>
+      </c>
       <c r="D2" s="11">
         <v>15.44</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="12">
@@ -1454,14 +1949,19 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="B3" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>342</v>
+      </c>
       <c r="D3" s="11">
         <v>18.73</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="12">
@@ -1469,14 +1969,19 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B4" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>313</v>
+      </c>
       <c r="D4" s="11">
         <v>8.81</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="21" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="12">
@@ -1484,14 +1989,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B5" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="D5" s="11">
         <v>9.98</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="21" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="12">
@@ -1499,14 +2009,19 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B6" s="9" t="s">
         <v>79</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>316</v>
+      </c>
       <c r="D6" s="11">
         <v>12.84</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="12">
@@ -1514,14 +2029,19 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="B7" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>315</v>
+      </c>
       <c r="D7" s="11">
         <v>15.74</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="12">
@@ -1530,13 +2050,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="11">
         <v>14.71</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="12">
@@ -1545,13 +2065,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>82</v>
       </c>
       <c r="D9" s="11">
         <v>21.56</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="12">
@@ -1560,13 +2080,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="11">
         <v>44.06</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="12">
@@ -1575,13 +2095,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D11" s="11">
         <v>91.48</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="12">
@@ -1590,13 +2110,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D12" s="11">
         <v>2.31</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="12">
@@ -1604,14 +2124,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="D13" s="11">
         <v>7.79</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="21" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="12">
@@ -1619,14 +2144,19 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>87</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>318</v>
+      </c>
       <c r="D14" s="11">
         <v>10.83</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="12">
@@ -1634,14 +2164,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B15" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>319</v>
+      </c>
       <c r="D15" s="11">
         <v>13.94</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="12">
@@ -1649,14 +2184,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B16" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>320</v>
+      </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F16" s="12">
@@ -1664,14 +2204,19 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B17" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="D17" s="11">
         <v>20.09</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="12">
@@ -1679,14 +2224,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B18" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D18" s="11">
         <v>16.75</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F18" s="12">
@@ -1694,14 +2244,19 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B19" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="D19" s="11">
         <v>19.990000000000002</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="12">
@@ -1709,15 +2264,19 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B20" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="D20" s="11">
         <v>28.560000000000002</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F20" s="12">
@@ -1725,15 +2284,19 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B21" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="D21" s="11">
         <v>28.34</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="12">
@@ -1741,14 +2304,19 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B22" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>326</v>
+      </c>
       <c r="D22" s="11">
         <v>54.51</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="12">
@@ -1756,14 +2324,19 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="B23" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="C23" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="D23" s="11">
         <v>39.340000000000003</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="21" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="12">
@@ -1771,14 +2344,19 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B24" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="C24" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="D24" s="11">
         <v>9.4500000000000011</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="21" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="12">
@@ -1786,14 +2364,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B25" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="C25" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="D25" s="11">
         <v>10.39</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F25" s="12">
@@ -1801,14 +2384,19 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="A26" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B26" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="D26" s="11">
         <v>8.98</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="21" t="s">
         <v>30</v>
       </c>
       <c r="F26" s="12">
@@ -1816,14 +2404,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B27" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>331</v>
+      </c>
       <c r="D27" s="11">
         <v>10.81</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="21" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="12">
@@ -1831,14 +2424,19 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B28" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="D28" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="21" t="s">
         <v>32</v>
       </c>
       <c r="F28" s="12">
@@ -1846,14 +2444,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B29" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>334</v>
+      </c>
       <c r="D29" s="11">
         <v>16.080000000000002</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="12">
@@ -1861,14 +2464,19 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B30" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>333</v>
+      </c>
       <c r="D30" s="11">
         <v>15.71</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="21" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="12">
@@ -1876,14 +2484,19 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="A31" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B31" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>335</v>
+      </c>
       <c r="D31" s="11">
         <v>31.3</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="12">
@@ -1891,14 +2504,19 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B32" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="D32" s="11">
         <v>31.3</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="12">
@@ -1906,14 +2524,19 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B33" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="D33" s="11">
         <v>12.98</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F33" s="12">
@@ -1921,14 +2544,19 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+      <c r="A34" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B34" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="C34" s="2" t="s">
+        <v>339</v>
+      </c>
       <c r="D34" s="11">
         <v>16.66</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F34" s="12">
@@ -1936,14 +2564,19 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
+      <c r="A35" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B35" s="9" t="s">
         <v>107</v>
       </c>
+      <c r="C35" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="D35" s="11">
         <v>18.97</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="12">
@@ -1951,14 +2584,19 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
+      <c r="A36" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B36" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>343</v>
+      </c>
       <c r="D36" s="11">
         <v>24.560000000000002</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="21" t="s">
         <v>40</v>
       </c>
       <c r="F36" s="12">
@@ -1966,14 +2604,19 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B37" s="9" t="s">
         <v>109</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>344</v>
+      </c>
       <c r="D37" s="11">
         <v>56.24</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="21" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="12">
@@ -1981,14 +2624,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+      <c r="A38" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B38" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="C38" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="D38" s="11">
         <v>91.48</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="12">
@@ -1996,14 +2644,19 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
+      <c r="A39" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="B39" s="9" t="s">
         <v>111</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" s="11">
         <v>30.060000000000002</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F39" s="12">
@@ -2012,13 +2665,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="14" t="s">
         <v>112</v>
       </c>
       <c r="D40" s="11">
         <v>34.82</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="12">
@@ -2027,13 +2680,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="14" t="s">
         <v>113</v>
       </c>
       <c r="D41" s="11">
         <v>16.64</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="12">
@@ -2042,13 +2695,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="11">
         <v>24.72</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="12">
@@ -2057,13 +2710,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D43" s="11">
         <v>25.16</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="12">
@@ -2072,13 +2725,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D44" s="11">
         <v>28.8</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F44" s="12">
@@ -2087,13 +2740,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="14" t="s">
         <v>117</v>
       </c>
       <c r="D45" s="11">
         <v>52.6</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F45" s="12">
@@ -2102,13 +2755,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D46" s="11">
         <v>33.380000000000003</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="21" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="12">
@@ -2117,13 +2770,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="14" t="s">
         <v>119</v>
       </c>
       <c r="D47" s="11">
         <v>40.730000000000004</v>
       </c>
-      <c r="E47" s="10" t="s">
+      <c r="E47" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="12">
@@ -2132,13 +2785,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D48" s="11">
         <v>85.05</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="21" t="s">
         <v>52</v>
       </c>
       <c r="F48" s="12">
@@ -2147,13 +2800,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="14" t="s">
         <v>121</v>
       </c>
       <c r="D49" s="11">
         <v>97.73</v>
       </c>
-      <c r="E49" s="10" t="s">
+      <c r="E49" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F49" s="12">
@@ -2161,14 +2814,19 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
+      <c r="A50" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B50" s="9" t="s">
         <v>122</v>
       </c>
+      <c r="C50" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="D50" s="11">
         <v>30.95</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E50" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F50" s="12">
@@ -2176,14 +2834,19 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B51" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="C51" s="2" t="s">
+        <v>347</v>
+      </c>
       <c r="D51" s="11">
         <v>25.310000000000002</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="21" t="s">
         <v>55</v>
       </c>
       <c r="F51" s="12">
@@ -2191,15 +2854,19 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
+      <c r="A52" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C52" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="D52" s="11">
         <v>26.55</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="21" t="s">
         <v>56</v>
       </c>
       <c r="F52" s="12">
@@ -2207,15 +2874,19 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
+      <c r="A53" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B53" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C53" s="5"/>
+      <c r="C53" s="2" t="s">
+        <v>349</v>
+      </c>
       <c r="D53" s="11">
         <v>37.869999999999997</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F53" s="12">
@@ -2223,15 +2894,19 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="D54" s="11">
         <v>22.59</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F54" s="12">
@@ -2239,14 +2914,19 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B55" s="9" t="s">
         <v>127</v>
       </c>
+      <c r="C55" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D55" s="11">
         <v>33.380000000000003</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="21" t="s">
         <v>59</v>
       </c>
       <c r="F55" s="12">
@@ -2255,13 +2935,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="14" t="s">
         <v>128</v>
       </c>
       <c r="D56" s="11">
         <v>71.77</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="21" t="s">
         <v>60</v>
       </c>
       <c r="F56" s="12">
@@ -2270,13 +2950,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="14" t="s">
         <v>129</v>
       </c>
       <c r="D57" s="11">
         <v>68.930000000000007</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="21" t="s">
         <v>61</v>
       </c>
       <c r="F57" s="12">
@@ -2284,15 +2964,19 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
+      <c r="A58" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B58" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D58" s="11">
         <v>47.94</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="21" t="s">
         <v>62</v>
       </c>
       <c r="F58" s="12">
@@ -2300,15 +2984,19 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
+      <c r="A59" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B59" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="5"/>
+      <c r="C59" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D59" s="11">
         <v>25.18</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F59" s="12">
@@ -2316,15 +3004,19 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" s="2" t="s">
+        <v>355</v>
+      </c>
       <c r="D60" s="11">
         <v>39.07</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="21" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="12">
@@ -2332,14 +3024,19 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+      <c r="A61" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B61" s="9" t="s">
         <v>133</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="D61" s="11">
         <v>42.52</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="21" t="s">
         <v>65</v>
       </c>
       <c r="F61" s="12">
@@ -2347,14 +3044,19 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="B62" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="C62" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D62" s="11">
         <v>39.910000000000004</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="21" t="s">
         <v>66</v>
       </c>
       <c r="F62" s="12">
@@ -2363,13 +3065,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5"/>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="14" t="s">
         <v>135</v>
       </c>
       <c r="D63" s="11">
         <v>33.730000000000004</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="E63" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F63" s="12">
@@ -2377,14 +3079,19 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="B64" s="9" t="s">
         <v>136</v>
       </c>
+      <c r="C64" s="2" t="s">
+        <v>350</v>
+      </c>
       <c r="D64" s="11">
         <v>38.94</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="E64" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F64" s="12">
@@ -2392,14 +3099,19 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="B65" s="9" t="s">
         <v>137</v>
       </c>
+      <c r="C65" s="2" t="s">
+        <v>351</v>
+      </c>
       <c r="D65" s="11">
         <v>46.37</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="E65" s="21" t="s">
         <v>69</v>
       </c>
       <c r="F65" s="12">
@@ -2408,76 +3120,76 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="15">
         <v>59.300000000000004</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="E66" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="15">
         <v>88.92</v>
       </c>
-      <c r="E67" s="10" t="s">
+      <c r="E67" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="15">
         <v>118.54</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="15">
         <v>185.26</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="15">
         <v>222.33</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="17">
         <v>0</v>
       </c>
     </row>
@@ -2487,1351 +3199,1699 @@
         <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D71" s="15">
+        <v>357</v>
+      </c>
+      <c r="D71" s="11">
         <v>0.69000000000000006</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F71" s="16">
+      <c r="F71" s="12">
         <v>576.00000000000136</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="11">
         <v>0.54</v>
       </c>
-      <c r="E72" s="14" t="s">
+      <c r="E72" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="F72" s="16">
+      <c r="F72" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="11">
         <v>0.35000000000000003</v>
       </c>
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F73" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D74" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E74" s="14" t="s">
+      <c r="E74" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D75" s="11">
         <v>0.64</v>
       </c>
-      <c r="E75" s="14" t="s">
+      <c r="E75" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B76" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D76" s="15">
+      <c r="C76" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" s="11">
         <v>1.33</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="12">
         <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B77" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D77" s="15">
+      <c r="C77" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" s="11">
         <v>1.49</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F77" s="12">
         <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B78" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="15">
+      <c r="C78" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" s="11">
         <v>1.6300000000000001</v>
       </c>
-      <c r="E78" s="14" t="s">
+      <c r="E78" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="12">
         <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B79" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D79" s="15">
+      <c r="C79" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D79" s="11">
         <v>1.82</v>
       </c>
-      <c r="E79" s="14" t="s">
+      <c r="E79" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="F79" s="16">
+      <c r="F79" s="12">
         <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B80" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D80" s="15">
+      <c r="C80" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" s="11">
         <v>1.96</v>
       </c>
-      <c r="E80" s="14" t="s">
+      <c r="E80" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="12">
         <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B81" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="5"/>
-      <c r="D81" s="15">
+      <c r="C81" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D81" s="11">
         <v>2.13</v>
       </c>
-      <c r="E81" s="14" t="s">
+      <c r="E81" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="12">
         <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B82" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="15">
+      <c r="C82" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" s="11">
         <v>2.29</v>
       </c>
-      <c r="E82" s="14" t="s">
+      <c r="E82" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B83" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="15">
+      <c r="C83" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D83" s="11">
         <v>2.4700000000000002</v>
       </c>
-      <c r="E83" s="14" t="s">
+      <c r="E83" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F83" s="16">
+      <c r="F83" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B84" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="15">
+      <c r="C84" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D84" s="11">
         <v>2.61</v>
       </c>
-      <c r="E84" s="14" t="s">
+      <c r="E84" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B85" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="15">
+      <c r="C85" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D85" s="11">
         <v>1.98</v>
       </c>
-      <c r="E85" s="14" t="s">
+      <c r="E85" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B86" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="15">
+      <c r="C86" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D86" s="11">
         <v>2.38</v>
       </c>
-      <c r="E86" s="14" t="s">
+      <c r="E86" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="16">
+      <c r="F86" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="B87" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="15">
+      <c r="C87" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="11">
         <v>2.7600000000000002</v>
       </c>
-      <c r="E87" s="14" t="s">
+      <c r="E87" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="F87" s="16">
+      <c r="F87" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="5"/>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="15">
+      <c r="D88" s="11">
         <v>1.31</v>
       </c>
-      <c r="E88" s="14" t="s">
+      <c r="E88" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B89" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="15">
+      <c r="C89" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D89" s="11">
         <v>3.12</v>
       </c>
-      <c r="E89" s="14" t="s">
+      <c r="E89" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="F89" s="16">
+      <c r="F89" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B90" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="15">
+      <c r="C90" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="11">
         <v>3.5100000000000002</v>
       </c>
-      <c r="E90" s="14" t="s">
+      <c r="E90" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="F90" s="16">
+      <c r="F90" s="12">
         <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B91" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="15">
+      <c r="C91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="11">
         <v>3.91</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="E91" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="F91" s="16">
+      <c r="F91" s="12">
         <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B92" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="15">
+      <c r="C92" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D92" s="11">
         <v>4.3100000000000005</v>
       </c>
-      <c r="E92" s="14" t="s">
+      <c r="E92" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="16">
+      <c r="F92" s="12">
         <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B93" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="15">
+      <c r="C93" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" s="11">
         <v>4.68</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="F93" s="16">
+      <c r="F93" s="12">
         <v>78</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B94" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="15">
+      <c r="C94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D94" s="11">
         <v>5.07</v>
       </c>
-      <c r="E94" s="14" t="s">
+      <c r="E94" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="F94" s="16">
+      <c r="F94" s="12">
         <v>75</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B95" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="15">
+      <c r="C95" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="11">
         <v>5.47</v>
       </c>
-      <c r="E95" s="14" t="s">
+      <c r="E95" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="F95" s="16">
+      <c r="F95" s="12">
         <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B96" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="15">
+      <c r="C96" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D96" s="11">
         <v>5.87</v>
       </c>
-      <c r="E96" s="14" t="s">
+      <c r="E96" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F96" s="16">
+      <c r="F96" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="5"/>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="15">
+      <c r="D97" s="11">
         <v>1.69</v>
       </c>
-      <c r="E97" s="14" t="s">
+      <c r="E97" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="F97" s="16">
+      <c r="F97" s="12">
         <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+      <c r="A98" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B98" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="15">
+      <c r="C98" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" s="11">
         <v>3.98</v>
       </c>
-      <c r="E98" s="14" t="s">
+      <c r="E98" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="12">
         <v>79</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B99" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="15">
+      <c r="C99" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D99" s="11">
         <v>5.12</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B100" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="15">
+      <c r="C100" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D100" s="11">
         <v>5.94</v>
       </c>
-      <c r="E100" s="14" t="s">
+      <c r="E100" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="F100" s="16">
+      <c r="F100" s="12">
         <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="B101" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="15">
+      <c r="C101" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" s="11">
         <v>6.92</v>
       </c>
-      <c r="E101" s="14" t="s">
+      <c r="E101" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="F101" s="16">
+      <c r="F101" s="12">
         <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="5"/>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="15">
+      <c r="D102" s="11">
         <v>2.13</v>
       </c>
-      <c r="E102" s="14" t="s">
+      <c r="E102" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="F102" s="16">
+      <c r="F102" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B103" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="15">
+      <c r="C103" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D103" s="11">
         <v>5.1100000000000003</v>
       </c>
-      <c r="E103" s="14" t="s">
+      <c r="E103" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="F103" s="16">
+      <c r="F103" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B104" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="15">
+      <c r="C104" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D104" s="11">
         <v>5.76</v>
       </c>
-      <c r="E104" s="14" t="s">
+      <c r="E104" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="F104" s="16">
+      <c r="F104" s="12">
         <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
+      <c r="A105" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B105" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="15">
+      <c r="C105" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D105" s="11">
         <v>6.3900000000000006</v>
       </c>
-      <c r="E105" s="14" t="s">
+      <c r="E105" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="F105" s="16">
+      <c r="F105" s="12">
         <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
+      <c r="A106" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B106" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="15">
+      <c r="C106" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D106" s="11">
         <v>7.03</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="F106" s="16">
+      <c r="F106" s="12">
         <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
+      <c r="A107" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B107" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="15">
+      <c r="C107" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" s="11">
         <v>7.68</v>
       </c>
-      <c r="E107" s="14" t="s">
+      <c r="E107" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="F107" s="16">
+      <c r="F107" s="12">
         <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
+      <c r="A108" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B108" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="15">
+      <c r="C108" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D108" s="11">
         <v>8.31</v>
       </c>
-      <c r="E108" s="14" t="s">
+      <c r="E108" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="F108" s="16">
+      <c r="F108" s="12">
         <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
+      <c r="A109" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B109" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="15">
+      <c r="C109" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D109" s="11">
         <v>8.9500000000000011</v>
       </c>
-      <c r="E109" s="14" t="s">
+      <c r="E109" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F109" s="16">
+      <c r="F109" s="12">
         <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
+      <c r="A110" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="B110" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="15">
+      <c r="C110" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D110" s="11">
         <v>9.61</v>
       </c>
-      <c r="E110" s="14" t="s">
+      <c r="E110" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="F110" s="16">
+      <c r="F110" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="5"/>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="15">
+      <c r="D111" s="11">
         <v>4.2700000000000005</v>
       </c>
-      <c r="E111" s="14" t="s">
+      <c r="E111" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="F111" s="16">
+      <c r="F111" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="5"/>
+      <c r="A112" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B112" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="15">
+      <c r="C112" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D112" s="11">
         <v>10.220000000000001</v>
       </c>
-      <c r="E112" s="14" t="s">
+      <c r="E112" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="F112" s="16">
+      <c r="F112" s="12">
         <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B113" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="15">
+      <c r="C113" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="11">
         <v>11.5</v>
       </c>
-      <c r="E113" s="14" t="s">
+      <c r="E113" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="F113" s="16">
+      <c r="F113" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="5"/>
+      <c r="A114" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B114" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="15">
+      <c r="C114" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D114" s="11">
         <v>12.780000000000001</v>
       </c>
-      <c r="E114" s="14" t="s">
+      <c r="E114" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="F114" s="16">
+      <c r="F114" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="5"/>
+      <c r="A115" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B115" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="15">
+      <c r="C115" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D115" s="11">
         <v>14.07</v>
       </c>
-      <c r="E115" s="14" t="s">
+      <c r="E115" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="F115" s="16">
+      <c r="F115" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="5"/>
+      <c r="A116" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B116" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="D116" s="15">
+      <c r="C116" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D116" s="11">
         <v>15.34</v>
       </c>
-      <c r="E116" s="14" t="s">
+      <c r="E116" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="F116" s="16">
+      <c r="F116" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="5"/>
+      <c r="A117" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B117" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="15">
+      <c r="C117" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D117" s="11">
         <v>16.61</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F117" s="16">
+      <c r="F117" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
+      <c r="A118" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B118" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="C118" s="5"/>
-      <c r="D118" s="15">
+      <c r="C118" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D118" s="11">
         <v>17.88</v>
       </c>
-      <c r="E118" s="14" t="s">
+      <c r="E118" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="F118" s="16">
+      <c r="F118" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="5"/>
+      <c r="A119" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B119" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="15">
+      <c r="C119" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D119" s="11">
         <v>19.12</v>
       </c>
-      <c r="E119" s="14" t="s">
+      <c r="E119" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F119" s="16">
+      <c r="F119" s="12">
         <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="5"/>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="15">
+      <c r="D120" s="11">
         <v>8.02</v>
       </c>
-      <c r="E120" s="14" t="s">
+      <c r="E120" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="F120" s="16">
+      <c r="F120" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="5"/>
+      <c r="A121" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B121" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="15">
+      <c r="C121" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D121" s="11">
         <v>18.100000000000001</v>
       </c>
-      <c r="E121" s="14" t="s">
+      <c r="E121" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="F121" s="16">
+      <c r="F121" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
+      <c r="A122" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B122" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C122" s="5"/>
-      <c r="D122" s="15">
+      <c r="C122" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D122" s="11">
         <v>22.64</v>
       </c>
-      <c r="E122" s="14" t="s">
+      <c r="E122" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="F122" s="16">
+      <c r="F122" s="12">
         <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="5"/>
+      <c r="A123" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B123" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C123" s="5"/>
-      <c r="D123" s="15">
+      <c r="C123" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D123" s="11">
         <v>27.150000000000002</v>
       </c>
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="F123" s="16">
+      <c r="F123" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="5"/>
+      <c r="A124" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B124" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="15">
+      <c r="C124" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D124" s="11">
         <v>31.69</v>
       </c>
-      <c r="E124" s="14" t="s">
+      <c r="E124" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="F124" s="16">
+      <c r="F124" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B125" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C125" s="5"/>
-      <c r="D125" s="15">
+      <c r="C125" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D125" s="11">
         <v>33.94</v>
       </c>
-      <c r="E125" s="14" t="s">
+      <c r="E125" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="F125" s="16">
+      <c r="F125" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
+      <c r="A126" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="B126" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C126" s="5"/>
-      <c r="D126" s="15">
+      <c r="C126" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D126" s="11">
         <v>36.22</v>
       </c>
-      <c r="E126" s="14" t="s">
+      <c r="E126" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F126" s="16">
+      <c r="F126" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="D127" s="11">
+        <v>2.15</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F127" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C127" s="5"/>
-      <c r="D127" s="19">
-        <v>2.15</v>
-      </c>
-      <c r="E127" s="17" t="s">
+      <c r="C128" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D128" s="11">
+        <v>5.12</v>
+      </c>
+      <c r="E128" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F128" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="5"/>
-      <c r="B128" s="18" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B129" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="C128" s="5"/>
-      <c r="D128" s="19">
-        <v>5.12</v>
-      </c>
-      <c r="E128" s="17" t="s">
+      <c r="C129" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D129" s="11">
+        <v>4.07</v>
+      </c>
+      <c r="E129" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F129" s="12">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D130" s="11">
+        <v>4.53</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F130" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D131" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" s="12">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D132" s="11">
+        <v>8.31</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="5"/>
-      <c r="B129" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="19">
-        <v>4.07</v>
-      </c>
-      <c r="E129" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F129" s="20">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="5"/>
-      <c r="B130" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="C130" s="5"/>
-      <c r="D130" s="19">
-        <v>4.53</v>
-      </c>
-      <c r="E130" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="F130" s="20">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="5"/>
-      <c r="B131" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="19">
-        <v>6.7</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="F131" s="20">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="5"/>
-      <c r="B132" s="18" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="C132" s="5"/>
-      <c r="D132" s="19">
-        <v>8.31</v>
-      </c>
-      <c r="E132" s="17" t="s">
+      <c r="C133" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D133" s="11">
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="E133" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="F132" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="5"/>
-      <c r="B133" s="18" t="s">
+      <c r="F133" s="12">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B134" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="19">
-        <v>7.8900000000000006</v>
-      </c>
-      <c r="E133" s="17" t="s">
+      <c r="C134" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D134" s="11">
+        <v>9.61</v>
+      </c>
+      <c r="E134" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F133" s="20">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="5"/>
-      <c r="B134" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C134" s="5"/>
-      <c r="D134" s="19">
-        <v>9.61</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="F134" s="20">
+      <c r="F134" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
-      <c r="B135" s="18" t="s">
+      <c r="B135" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D135" s="11">
+        <v>3.5500000000000003</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="19">
-        <v>3.5500000000000003</v>
-      </c>
-      <c r="E135" s="17" t="s">
+      <c r="C136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D136" s="11">
+        <v>6.22</v>
+      </c>
+      <c r="E136" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F136" s="12">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D137" s="11">
+        <v>6.91</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" s="12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D138" s="11">
+        <v>10.91</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="5"/>
-      <c r="B136" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C136" s="5"/>
-      <c r="D136" s="19">
-        <v>6.22</v>
-      </c>
-      <c r="E136" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="F136" s="20">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="5"/>
-      <c r="B137" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C137" s="5"/>
-      <c r="D137" s="19">
-        <v>6.91</v>
-      </c>
-      <c r="E137" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="F137" s="20">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="5"/>
-      <c r="B138" s="18" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="19">
-        <v>10.91</v>
-      </c>
-      <c r="E138" s="17" t="s">
+      <c r="C139" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D139" s="11">
+        <v>10.370000000000001</v>
+      </c>
+      <c r="E139" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F139" s="12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D140" s="11">
+        <v>13.88</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" s="12">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D141" s="11">
+        <v>9.23</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="F141" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="5"/>
-      <c r="B139" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" s="5"/>
-      <c r="D139" s="19">
-        <v>10.370000000000001</v>
-      </c>
-      <c r="E139" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F139" s="20">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="5"/>
-      <c r="B140" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C140" s="5"/>
-      <c r="D140" s="19">
-        <v>13.88</v>
-      </c>
-      <c r="E140" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F140" s="20">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="5"/>
-      <c r="B141" s="18" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B142" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="19">
-        <v>9.23</v>
-      </c>
-      <c r="E141" s="17" t="s">
+      <c r="C142" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D142" s="11">
+        <v>11.14</v>
+      </c>
+      <c r="E142" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F141" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C142" s="5"/>
-      <c r="D142" s="19">
-        <v>11.14</v>
-      </c>
-      <c r="E142" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="F142" s="20">
+      <c r="F142" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D143" s="11">
+        <v>3.17</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="F143" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B144" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C143" s="5"/>
-      <c r="D143" s="19">
-        <v>3.17</v>
-      </c>
-      <c r="E143" s="17" t="s">
+      <c r="C144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D144" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="E144" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F144" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" s="18" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C144" s="5"/>
-      <c r="D144" s="19">
-        <v>7.2</v>
-      </c>
-      <c r="E144" s="17" t="s">
+      <c r="C145" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D145" s="11">
+        <v>18.11</v>
+      </c>
+      <c r="E145" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F145" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" s="18" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B146" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="19">
-        <v>18.11</v>
-      </c>
-      <c r="E145" s="17" t="s">
+      <c r="C146" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" s="11">
+        <v>11.94</v>
+      </c>
+      <c r="E146" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="F145" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
-      <c r="B146" s="18" t="s">
+      <c r="F146" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B147" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C146" s="5"/>
-      <c r="D146" s="19">
-        <v>11.94</v>
-      </c>
-      <c r="E146" s="17" t="s">
+      <c r="C147" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D147" s="11">
+        <v>15.16</v>
+      </c>
+      <c r="E147" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="F146" s="20">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" s="18" t="s">
+      <c r="F147" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B148" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="19">
-        <v>15.16</v>
-      </c>
-      <c r="E147" s="17" t="s">
+      <c r="C148" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D148" s="11">
+        <v>13.52</v>
+      </c>
+      <c r="E148" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="F147" s="20">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" s="18" t="s">
+      <c r="F148" s="12">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B149" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="5"/>
-      <c r="D148" s="19">
-        <v>13.52</v>
-      </c>
-      <c r="E148" s="17" t="s">
+      <c r="C149" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D149" s="11">
+        <v>24.89</v>
+      </c>
+      <c r="E149" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="F148" s="20">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="5"/>
-      <c r="B149" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C149" s="5"/>
-      <c r="D149" s="19">
-        <v>24.89</v>
-      </c>
-      <c r="E149" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="F149" s="20">
+      <c r="F149" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
+      <c r="B150" s="28" t="s">
+        <v>424</v>
+      </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
-      <c r="F150" s="5"/>
+      <c r="D150" s="26">
+        <v>7.8</v>
+      </c>
+      <c r="E150" s="21">
+        <v>71175236</v>
+      </c>
+      <c r="F150" s="24">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
-      <c r="F151" s="5"/>
+      <c r="B151" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D151" s="25">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="F151" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
+      <c r="B152" s="13" t="s">
+        <v>428</v>
+      </c>
       <c r="C152" s="5"/>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
+      <c r="D152" s="30">
+        <v>23.8</v>
+      </c>
+      <c r="E152" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="F152" s="31">
+        <v>3</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
+      <c r="B153" s="13" t="s">
+        <v>430</v>
+      </c>
       <c r="C153" s="5"/>
-      <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
-      <c r="F153" s="5"/>
+      <c r="D153" s="32">
+        <v>18.22</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="F153" s="33">
+        <v>24</v>
+      </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
+      <c r="B154" s="9" t="s">
+        <v>431</v>
+      </c>
       <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
-      <c r="F154" s="5"/>
+      <c r="D154" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E154" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="F154" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
+      <c r="B155" s="9" t="s">
+        <v>432</v>
+      </c>
       <c r="C155" s="5"/>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
+      <c r="D155" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E155" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="F155" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
+      <c r="B156" s="9" t="s">
+        <v>433</v>
+      </c>
       <c r="C156" s="5"/>
-      <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
+      <c r="D156" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E156" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="F156" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
+      <c r="B157" s="9" t="s">
+        <v>434</v>
+      </c>
       <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
+      <c r="D157" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E157" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="F157" s="36">
+        <v>2</v>
+      </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
+      <c r="B158" s="9" t="s">
+        <v>435</v>
+      </c>
       <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
+      <c r="D158" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E158" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="F158" s="36">
+        <v>0</v>
+      </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
+      <c r="B159" s="9" t="s">
+        <v>436</v>
+      </c>
       <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+      <c r="D159" s="35">
+        <v>9.82</v>
+      </c>
+      <c r="E159" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="F159" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="9" t="s">
+        <v>437</v>
+      </c>
       <c r="C160" s="5"/>
-      <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="D160" s="35">
+        <v>6.3</v>
+      </c>
+      <c r="E160" s="34" t="s">
+        <v>444</v>
+      </c>
+      <c r="F160" s="36">
+        <v>4</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
+      <c r="E161" s="21"/>
       <c r="F161" s="5"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3839,7 +4899,7 @@
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
-      <c r="E162" s="5"/>
+      <c r="E162" s="21"/>
       <c r="F162" s="5"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3847,7 +4907,7 @@
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
-      <c r="E163" s="5"/>
+      <c r="E163" s="21"/>
       <c r="F163" s="5"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -3855,7 +4915,7 @@
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
+      <c r="E164" s="21"/>
       <c r="F164" s="5"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3863,7 +4923,7 @@
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
+      <c r="E165" s="21"/>
       <c r="F165" s="5"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3871,7 +4931,7 @@
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
-      <c r="E166" s="5"/>
+      <c r="E166" s="21"/>
       <c r="F166" s="5"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3879,7 +4939,7 @@
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
-      <c r="E167" s="5"/>
+      <c r="E167" s="21"/>
       <c r="F167" s="5"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3887,7 +4947,7 @@
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
-      <c r="E168" s="5"/>
+      <c r="E168" s="21"/>
       <c r="F168" s="5"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3895,7 +4955,7 @@
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
+      <c r="E169" s="21"/>
       <c r="F169" s="5"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3903,7 +4963,7 @@
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
+      <c r="E170" s="21"/>
       <c r="F170" s="5"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3911,7 +4971,7 @@
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
+      <c r="E171" s="21"/>
       <c r="F171" s="5"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3919,7 +4979,7 @@
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
+      <c r="E172" s="21"/>
       <c r="F172" s="5"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3927,7 +4987,7 @@
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
+      <c r="E173" s="21"/>
       <c r="F173" s="5"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3935,7 +4995,7 @@
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
-      <c r="E174" s="5"/>
+      <c r="E174" s="21"/>
       <c r="F174" s="5"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3943,7 +5003,7 @@
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
-      <c r="E175" s="5"/>
+      <c r="E175" s="21"/>
       <c r="F175" s="5"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3951,7 +5011,7 @@
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
+      <c r="E176" s="21"/>
       <c r="F176" s="5"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -3959,7 +5019,7 @@
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
-      <c r="E177" s="5"/>
+      <c r="E177" s="21"/>
       <c r="F177" s="5"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -3967,7 +5027,7 @@
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
-      <c r="E178" s="5"/>
+      <c r="E178" s="21"/>
       <c r="F178" s="5"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -3975,7 +5035,7 @@
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
-      <c r="E179" s="5"/>
+      <c r="E179" s="21"/>
       <c r="F179" s="5"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -3983,7 +5043,7 @@
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
+      <c r="E180" s="21"/>
       <c r="F180" s="5"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -3991,7 +5051,7 @@
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
-      <c r="E181" s="5"/>
+      <c r="E181" s="21"/>
       <c r="F181" s="5"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -3999,7 +5059,7 @@
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
+      <c r="E182" s="21"/>
       <c r="F182" s="5"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4007,7 +5067,7 @@
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
+      <c r="E183" s="21"/>
       <c r="F183" s="5"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4015,7 +5075,7 @@
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
-      <c r="E184" s="5"/>
+      <c r="E184" s="21"/>
       <c r="F184" s="5"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4023,7 +5083,7 @@
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
-      <c r="E185" s="5"/>
+      <c r="E185" s="21"/>
       <c r="F185" s="5"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4031,7 +5091,7 @@
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
-      <c r="E186" s="5"/>
+      <c r="E186" s="21"/>
       <c r="F186" s="5"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4039,7 +5099,7 @@
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
-      <c r="E187" s="5"/>
+      <c r="E187" s="21"/>
       <c r="F187" s="5"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4047,7 +5107,7 @@
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
-      <c r="E188" s="5"/>
+      <c r="E188" s="21"/>
       <c r="F188" s="5"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
@@ -4055,7 +5115,7 @@
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
+      <c r="E189" s="21"/>
       <c r="F189" s="5"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4063,7 +5123,7 @@
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
+      <c r="E190" s="21"/>
       <c r="F190" s="5"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4071,7 +5131,7 @@
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
+      <c r="E191" s="21"/>
       <c r="F191" s="5"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4079,7 +5139,7 @@
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
+      <c r="E192" s="21"/>
       <c r="F192" s="5"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4087,7 +5147,7 @@
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
+      <c r="E193" s="21"/>
       <c r="F193" s="5"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,7 +5155,7 @@
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
+      <c r="E194" s="21"/>
       <c r="F194" s="5"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -4103,7 +5163,7 @@
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
-      <c r="E195" s="5"/>
+      <c r="E195" s="21"/>
       <c r="F195" s="5"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4111,7 +5171,7 @@
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
+      <c r="E196" s="21"/>
       <c r="F196" s="5"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -4119,7 +5179,7 @@
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
+      <c r="E197" s="21"/>
       <c r="F197" s="5"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4127,7 +5187,7 @@
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
+      <c r="E198" s="21"/>
       <c r="F198" s="5"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4135,7 +5195,7 @@
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
+      <c r="E199" s="21"/>
       <c r="F199" s="5"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4143,7 +5203,7 @@
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
-      <c r="E200" s="5"/>
+      <c r="E200" s="21"/>
       <c r="F200" s="5"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4151,7 +5211,7 @@
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
-      <c r="E201" s="5"/>
+      <c r="E201" s="21"/>
       <c r="F201" s="5"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4159,7 +5219,7 @@
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
-      <c r="E202" s="5"/>
+      <c r="E202" s="21"/>
       <c r="F202" s="5"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4167,7 +5227,7 @@
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
-      <c r="E203" s="5"/>
+      <c r="E203" s="21"/>
       <c r="F203" s="5"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,7 +5235,7 @@
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
-      <c r="E204" s="5"/>
+      <c r="E204" s="21"/>
       <c r="F204" s="5"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -4183,7 +5243,7 @@
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
-      <c r="E205" s="5"/>
+      <c r="E205" s="21"/>
       <c r="F205" s="5"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4191,7 +5251,7 @@
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
-      <c r="E206" s="5"/>
+      <c r="E206" s="21"/>
       <c r="F206" s="5"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -4199,7 +5259,7 @@
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
-      <c r="E207" s="5"/>
+      <c r="E207" s="21"/>
       <c r="F207" s="5"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4207,7 +5267,7 @@
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
-      <c r="E208" s="5"/>
+      <c r="E208" s="21"/>
       <c r="F208" s="5"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4215,7 +5275,7 @@
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
+      <c r="E209" s="21"/>
       <c r="F209" s="5"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4223,7 +5283,7 @@
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
-      <c r="E210" s="5"/>
+      <c r="E210" s="21"/>
       <c r="F210" s="5"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4231,7 +5291,7 @@
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
-      <c r="E211" s="5"/>
+      <c r="E211" s="21"/>
       <c r="F211" s="5"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4239,7 +5299,7 @@
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
-      <c r="E212" s="5"/>
+      <c r="E212" s="21"/>
       <c r="F212" s="5"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -4247,7 +5307,7 @@
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
-      <c r="E213" s="5"/>
+      <c r="E213" s="21"/>
       <c r="F213" s="5"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4255,7 +5315,7 @@
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
-      <c r="E214" s="5"/>
+      <c r="E214" s="21"/>
       <c r="F214" s="5"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4263,7 +5323,7 @@
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
-      <c r="E215" s="5"/>
+      <c r="E215" s="21"/>
       <c r="F215" s="5"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4271,7 +5331,7 @@
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
+      <c r="E216" s="21"/>
       <c r="F216" s="5"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4279,7 +5339,7 @@
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
-      <c r="E217" s="5"/>
+      <c r="E217" s="21"/>
       <c r="F217" s="5"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -4287,7 +5347,7 @@
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
+      <c r="E218" s="21"/>
       <c r="F218" s="5"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4295,7 +5355,7 @@
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
+      <c r="E219" s="21"/>
       <c r="F219" s="5"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -4303,7 +5363,7 @@
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
-      <c r="E220" s="5"/>
+      <c r="E220" s="21"/>
       <c r="F220" s="5"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4311,7 +5371,7 @@
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
-      <c r="E221" s="5"/>
+      <c r="E221" s="21"/>
       <c r="F221" s="5"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4319,7 +5379,7 @@
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
+      <c r="E222" s="21"/>
       <c r="F222" s="5"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4327,7 +5387,7 @@
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
+      <c r="E223" s="21"/>
       <c r="F223" s="5"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4335,7 +5395,7 @@
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
+      <c r="E224" s="21"/>
       <c r="F224" s="5"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4343,7 +5403,7 @@
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
+      <c r="E225" s="21"/>
       <c r="F225" s="5"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4351,7 +5411,7 @@
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
+      <c r="E226" s="21"/>
       <c r="F226" s="5"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -4359,7 +5419,7 @@
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
+      <c r="E227" s="21"/>
       <c r="F227" s="5"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -4367,7 +5427,7 @@
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
+      <c r="E228" s="21"/>
       <c r="F228" s="5"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -4375,7 +5435,7 @@
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
+      <c r="E229" s="21"/>
       <c r="F229" s="5"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -4383,7 +5443,7 @@
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
+      <c r="E230" s="21"/>
       <c r="F230" s="5"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,7 +5451,7 @@
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
+      <c r="E231" s="21"/>
       <c r="F231" s="5"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -4399,7 +5459,7 @@
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
+      <c r="E232" s="21"/>
       <c r="F232" s="5"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -4407,7 +5467,7 @@
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
+      <c r="E233" s="21"/>
       <c r="F233" s="5"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -4415,7 +5475,7 @@
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
+      <c r="E234" s="21"/>
       <c r="F234" s="5"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -4423,7 +5483,7 @@
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
+      <c r="E235" s="21"/>
       <c r="F235" s="5"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -4431,7 +5491,7 @@
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
+      <c r="E236" s="21"/>
       <c r="F236" s="5"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -4439,7 +5499,7 @@
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
+      <c r="E237" s="21"/>
       <c r="F237" s="5"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -4447,7 +5507,7 @@
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
+      <c r="E238" s="21"/>
       <c r="F238" s="5"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -4455,7 +5515,7 @@
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
+      <c r="E239" s="21"/>
       <c r="F239" s="5"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -4463,7 +5523,7 @@
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
+      <c r="E240" s="21"/>
       <c r="F240" s="5"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -4471,7 +5531,7 @@
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
+      <c r="E241" s="21"/>
       <c r="F241" s="5"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -4479,7 +5539,7 @@
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
+      <c r="E242" s="21"/>
       <c r="F242" s="5"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -4487,7 +5547,7 @@
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
+      <c r="E243" s="21"/>
       <c r="F243" s="5"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -4495,7 +5555,7 @@
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
+      <c r="E244" s="21"/>
       <c r="F244" s="5"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -4503,7 +5563,7 @@
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
+      <c r="E245" s="21"/>
       <c r="F245" s="5"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -4511,7 +5571,7 @@
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
+      <c r="E246" s="21"/>
       <c r="F246" s="5"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -4519,7 +5579,7 @@
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
-      <c r="E247" s="5"/>
+      <c r="E247" s="21"/>
       <c r="F247" s="5"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -4527,7 +5587,7 @@
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
-      <c r="E248" s="5"/>
+      <c r="E248" s="21"/>
       <c r="F248" s="5"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -4535,7 +5595,7 @@
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
-      <c r="E249" s="5"/>
+      <c r="E249" s="21"/>
       <c r="F249" s="5"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -4543,7 +5603,7 @@
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
-      <c r="E250" s="5"/>
+      <c r="E250" s="21"/>
       <c r="F250" s="5"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -4551,7 +5611,7 @@
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
-      <c r="E251" s="5"/>
+      <c r="E251" s="21"/>
       <c r="F251" s="5"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -4559,7 +5619,7 @@
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
-      <c r="E252" s="5"/>
+      <c r="E252" s="21"/>
       <c r="F252" s="5"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -4567,7 +5627,7 @@
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
-      <c r="E253" s="5"/>
+      <c r="E253" s="21"/>
       <c r="F253" s="5"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,7 +5635,7 @@
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
-      <c r="E254" s="5"/>
+      <c r="E254" s="21"/>
       <c r="F254" s="5"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -4583,7 +5643,7 @@
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
-      <c r="E255" s="5"/>
+      <c r="E255" s="21"/>
       <c r="F255" s="5"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -4591,7 +5651,7 @@
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
-      <c r="E256" s="5"/>
+      <c r="E256" s="21"/>
       <c r="F256" s="5"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -4599,7 +5659,7 @@
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
-      <c r="E257" s="5"/>
+      <c r="E257" s="21"/>
       <c r="F257" s="5"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -4607,7 +5667,7 @@
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
-      <c r="E258" s="5"/>
+      <c r="E258" s="21"/>
       <c r="F258" s="5"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -4615,7 +5675,7 @@
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
+      <c r="E259" s="21"/>
       <c r="F259" s="5"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -4623,7 +5683,7 @@
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
-      <c r="E260" s="5"/>
+      <c r="E260" s="21"/>
       <c r="F260" s="5"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -4631,7 +5691,7 @@
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
-      <c r="E261" s="5"/>
+      <c r="E261" s="21"/>
       <c r="F261" s="5"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -4639,7 +5699,7 @@
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
-      <c r="E262" s="5"/>
+      <c r="E262" s="21"/>
       <c r="F262" s="5"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -4647,7 +5707,7 @@
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
+      <c r="E263" s="21"/>
       <c r="F263" s="5"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -4655,7 +5715,7 @@
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
+      <c r="E264" s="21"/>
       <c r="F264" s="5"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -4663,7 +5723,7 @@
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
-      <c r="E265" s="5"/>
+      <c r="E265" s="21"/>
       <c r="F265" s="5"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -4671,7 +5731,7 @@
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
-      <c r="E266" s="5"/>
+      <c r="E266" s="21"/>
       <c r="F266" s="5"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -4679,7 +5739,7 @@
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
-      <c r="E267" s="5"/>
+      <c r="E267" s="21"/>
       <c r="F267" s="5"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -4687,7 +5747,7 @@
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
-      <c r="E268" s="5"/>
+      <c r="E268" s="21"/>
       <c r="F268" s="5"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -4695,7 +5755,7 @@
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
-      <c r="E269" s="5"/>
+      <c r="E269" s="21"/>
       <c r="F269" s="5"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,7 +5763,7 @@
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
-      <c r="E270" s="5"/>
+      <c r="E270" s="21"/>
       <c r="F270" s="5"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -4711,7 +5771,7 @@
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
-      <c r="E271" s="5"/>
+      <c r="E271" s="21"/>
       <c r="F271" s="5"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -4719,7 +5779,7 @@
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
-      <c r="E272" s="5"/>
+      <c r="E272" s="21"/>
       <c r="F272" s="5"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -4727,7 +5787,7 @@
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
-      <c r="E273" s="5"/>
+      <c r="E273" s="21"/>
       <c r="F273" s="5"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -4735,7 +5795,7 @@
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
-      <c r="E274" s="5"/>
+      <c r="E274" s="21"/>
       <c r="F274" s="5"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,7 +5803,7 @@
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
-      <c r="E275" s="5"/>
+      <c r="E275" s="21"/>
       <c r="F275" s="5"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -4751,7 +5811,7 @@
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
-      <c r="E276" s="5"/>
+      <c r="E276" s="21"/>
       <c r="F276" s="5"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -4759,7 +5819,7 @@
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
-      <c r="E277" s="5"/>
+      <c r="E277" s="21"/>
       <c r="F277" s="5"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -4767,7 +5827,7 @@
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
-      <c r="E278" s="5"/>
+      <c r="E278" s="21"/>
       <c r="F278" s="5"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
@@ -4775,7 +5835,7 @@
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
-      <c r="E279" s="5"/>
+      <c r="E279" s="21"/>
       <c r="F279" s="5"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -4783,7 +5843,7 @@
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
-      <c r="E280" s="5"/>
+      <c r="E280" s="21"/>
       <c r="F280" s="5"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
@@ -4791,7 +5851,7 @@
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
-      <c r="E281" s="5"/>
+      <c r="E281" s="21"/>
       <c r="F281" s="5"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
@@ -4799,7 +5859,7 @@
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
-      <c r="E282" s="5"/>
+      <c r="E282" s="21"/>
       <c r="F282" s="5"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
@@ -4807,7 +5867,7 @@
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
-      <c r="E283" s="5"/>
+      <c r="E283" s="21"/>
       <c r="F283" s="5"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -4815,7 +5875,7 @@
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
-      <c r="E284" s="5"/>
+      <c r="E284" s="21"/>
       <c r="F284" s="5"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
@@ -4823,7 +5883,7 @@
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
-      <c r="E285" s="5"/>
+      <c r="E285" s="21"/>
       <c r="F285" s="5"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -4831,7 +5891,7 @@
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
-      <c r="E286" s="5"/>
+      <c r="E286" s="21"/>
       <c r="F286" s="5"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
@@ -4839,7 +5899,7 @@
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
-      <c r="E287" s="5"/>
+      <c r="E287" s="21"/>
       <c r="F287" s="5"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
@@ -4847,7 +5907,7 @@
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
-      <c r="E288" s="5"/>
+      <c r="E288" s="21"/>
       <c r="F288" s="5"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -4855,7 +5915,7 @@
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
-      <c r="E289" s="5"/>
+      <c r="E289" s="21"/>
       <c r="F289" s="5"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -4863,7 +5923,7 @@
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
-      <c r="E290" s="5"/>
+      <c r="E290" s="21"/>
       <c r="F290" s="5"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
@@ -4871,7 +5931,7 @@
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
-      <c r="E291" s="5"/>
+      <c r="E291" s="21"/>
       <c r="F291" s="5"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -4879,7 +5939,7 @@
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
-      <c r="E292" s="5"/>
+      <c r="E292" s="21"/>
       <c r="F292" s="5"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
@@ -4887,7 +5947,7 @@
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
-      <c r="E293" s="5"/>
+      <c r="E293" s="21"/>
       <c r="F293" s="5"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
@@ -4895,7 +5955,7 @@
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
-      <c r="E294" s="5"/>
+      <c r="E294" s="21"/>
       <c r="F294" s="5"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
@@ -4903,7 +5963,7 @@
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
-      <c r="E295" s="5"/>
+      <c r="E295" s="21"/>
       <c r="F295" s="5"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
@@ -4911,7 +5971,7 @@
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
-      <c r="E296" s="5"/>
+      <c r="E296" s="21"/>
       <c r="F296" s="5"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -4919,7 +5979,7 @@
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
-      <c r="E297" s="5"/>
+      <c r="E297" s="21"/>
       <c r="F297" s="5"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
@@ -4927,7 +5987,7 @@
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
-      <c r="E298" s="5"/>
+      <c r="E298" s="21"/>
       <c r="F298" s="5"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -4935,7 +5995,7 @@
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
-      <c r="E299" s="5"/>
+      <c r="E299" s="21"/>
       <c r="F299" s="5"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,7 +6003,7 @@
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
-      <c r="E300" s="5"/>
+      <c r="E300" s="21"/>
       <c r="F300" s="5"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -4951,7 +6011,7 @@
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
-      <c r="E301" s="5"/>
+      <c r="E301" s="21"/>
       <c r="F301" s="5"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
@@ -4959,7 +6019,7 @@
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
-      <c r="E302" s="5"/>
+      <c r="E302" s="21"/>
       <c r="F302" s="5"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
@@ -4967,7 +6027,7 @@
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
-      <c r="E303" s="5"/>
+      <c r="E303" s="21"/>
       <c r="F303" s="5"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
@@ -4975,7 +6035,7 @@
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
-      <c r="E304" s="5"/>
+      <c r="E304" s="21"/>
       <c r="F304" s="5"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,7 +6043,7 @@
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
-      <c r="E305" s="5"/>
+      <c r="E305" s="21"/>
       <c r="F305" s="5"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
@@ -4991,7 +6051,7 @@
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
-      <c r="E306" s="5"/>
+      <c r="E306" s="21"/>
       <c r="F306" s="5"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
@@ -4999,7 +6059,7 @@
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
-      <c r="E307" s="5"/>
+      <c r="E307" s="21"/>
       <c r="F307" s="5"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
@@ -5007,7 +6067,7 @@
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
-      <c r="E308" s="5"/>
+      <c r="E308" s="21"/>
       <c r="F308" s="5"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
@@ -5015,7 +6075,7 @@
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
-      <c r="E309" s="5"/>
+      <c r="E309" s="21"/>
       <c r="F309" s="5"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
@@ -5023,7 +6083,7 @@
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
-      <c r="E310" s="5"/>
+      <c r="E310" s="21"/>
       <c r="F310" s="5"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -5031,7 +6091,7 @@
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
-      <c r="E311" s="5"/>
+      <c r="E311" s="21"/>
       <c r="F311" s="5"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
@@ -5039,7 +6099,7 @@
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
-      <c r="E312" s="5"/>
+      <c r="E312" s="21"/>
       <c r="F312" s="5"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
@@ -5047,7 +6107,7 @@
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
-      <c r="E313" s="5"/>
+      <c r="E313" s="21"/>
       <c r="F313" s="5"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
@@ -5055,7 +6115,7 @@
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
-      <c r="E314" s="5"/>
+      <c r="E314" s="21"/>
       <c r="F314" s="5"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
@@ -5063,7 +6123,7 @@
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
-      <c r="E315" s="5"/>
+      <c r="E315" s="21"/>
       <c r="F315" s="5"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
@@ -5071,7 +6131,7 @@
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
-      <c r="E316" s="5"/>
+      <c r="E316" s="21"/>
       <c r="F316" s="5"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -5079,7 +6139,7 @@
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
-      <c r="E317" s="5"/>
+      <c r="E317" s="21"/>
       <c r="F317" s="5"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
@@ -5087,7 +6147,7 @@
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
-      <c r="E318" s="5"/>
+      <c r="E318" s="21"/>
       <c r="F318" s="5"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
@@ -5095,7 +6155,7 @@
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
-      <c r="E319" s="5"/>
+      <c r="E319" s="21"/>
       <c r="F319" s="5"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
@@ -5103,7 +6163,7 @@
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
-      <c r="E320" s="5"/>
+      <c r="E320" s="21"/>
       <c r="F320" s="5"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -5111,7 +6171,7 @@
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
-      <c r="E321" s="5"/>
+      <c r="E321" s="21"/>
       <c r="F321" s="5"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
@@ -5119,7 +6179,7 @@
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
-      <c r="E322" s="5"/>
+      <c r="E322" s="21"/>
       <c r="F322" s="5"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -5127,7 +6187,7 @@
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
-      <c r="E323" s="5"/>
+      <c r="E323" s="21"/>
       <c r="F323" s="5"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -5135,7 +6195,7 @@
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
-      <c r="E324" s="5"/>
+      <c r="E324" s="21"/>
       <c r="F324" s="5"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -5143,7 +6203,7 @@
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
-      <c r="E325" s="5"/>
+      <c r="E325" s="21"/>
       <c r="F325" s="5"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -5151,7 +6211,7 @@
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
-      <c r="E326" s="5"/>
+      <c r="E326" s="21"/>
       <c r="F326" s="5"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
@@ -5159,7 +6219,7 @@
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
-      <c r="E327" s="5"/>
+      <c r="E327" s="21"/>
       <c r="F327" s="5"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -5167,7 +6227,7 @@
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
-      <c r="E328" s="5"/>
+      <c r="E328" s="21"/>
       <c r="F328" s="5"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -5175,7 +6235,7 @@
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
-      <c r="E329" s="5"/>
+      <c r="E329" s="21"/>
       <c r="F329" s="5"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
@@ -5183,7 +6243,7 @@
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
-      <c r="E330" s="5"/>
+      <c r="E330" s="21"/>
       <c r="F330" s="5"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -5191,7 +6251,7 @@
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
-      <c r="E331" s="5"/>
+      <c r="E331" s="21"/>
       <c r="F331" s="5"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -5199,7 +6259,7 @@
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
-      <c r="E332" s="5"/>
+      <c r="E332" s="21"/>
       <c r="F332" s="5"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
@@ -5207,7 +6267,7 @@
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
-      <c r="E333" s="5"/>
+      <c r="E333" s="21"/>
       <c r="F333" s="5"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -5215,7 +6275,7 @@
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
-      <c r="E334" s="5"/>
+      <c r="E334" s="21"/>
       <c r="F334" s="5"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -5223,7 +6283,7 @@
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
-      <c r="E335" s="5"/>
+      <c r="E335" s="21"/>
       <c r="F335" s="5"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -5231,7 +6291,7 @@
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
-      <c r="E336" s="5"/>
+      <c r="E336" s="21"/>
       <c r="F336" s="5"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,7 +6299,7 @@
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
-      <c r="E337" s="5"/>
+      <c r="E337" s="21"/>
       <c r="F337" s="5"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
@@ -5247,7 +6307,7 @@
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
-      <c r="E338" s="5"/>
+      <c r="E338" s="21"/>
       <c r="F338" s="5"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -5255,7 +6315,7 @@
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
-      <c r="E339" s="5"/>
+      <c r="E339" s="21"/>
       <c r="F339" s="5"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
@@ -5263,7 +6323,7 @@
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
-      <c r="E340" s="5"/>
+      <c r="E340" s="21"/>
       <c r="F340" s="5"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -5271,7 +6331,7 @@
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
-      <c r="E341" s="5"/>
+      <c r="E341" s="21"/>
       <c r="F341" s="5"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -5279,7 +6339,7 @@
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
-      <c r="E342" s="5"/>
+      <c r="E342" s="21"/>
       <c r="F342" s="5"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
@@ -5287,7 +6347,7 @@
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
-      <c r="E343" s="5"/>
+      <c r="E343" s="21"/>
       <c r="F343" s="5"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
@@ -5295,7 +6355,7 @@
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
-      <c r="E344" s="5"/>
+      <c r="E344" s="21"/>
       <c r="F344" s="5"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -5303,7 +6363,7 @@
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
-      <c r="E345" s="5"/>
+      <c r="E345" s="21"/>
       <c r="F345" s="5"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
@@ -5311,7 +6371,7 @@
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
-      <c r="E346" s="5"/>
+      <c r="E346" s="21"/>
       <c r="F346" s="5"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -5319,7 +6379,7 @@
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
-      <c r="E347" s="5"/>
+      <c r="E347" s="21"/>
       <c r="F347" s="5"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
@@ -5327,7 +6387,7 @@
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
-      <c r="E348" s="5"/>
+      <c r="E348" s="21"/>
       <c r="F348" s="5"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
@@ -5335,7 +6395,7 @@
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
+      <c r="E349" s="21"/>
       <c r="F349" s="5"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -5343,7 +6403,7 @@
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
+      <c r="E350" s="21"/>
       <c r="F350" s="5"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
@@ -5351,7 +6411,7 @@
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
+      <c r="E351" s="21"/>
       <c r="F351" s="5"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,7 +6419,7 @@
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
-      <c r="E352" s="5"/>
+      <c r="E352" s="21"/>
       <c r="F352" s="5"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
@@ -5367,7 +6427,7 @@
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
-      <c r="E353" s="5"/>
+      <c r="E353" s="21"/>
       <c r="F353" s="5"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
@@ -5375,7 +6435,7 @@
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
-      <c r="E354" s="5"/>
+      <c r="E354" s="21"/>
       <c r="F354" s="5"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -5383,7 +6443,7 @@
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
-      <c r="E355" s="5"/>
+      <c r="E355" s="21"/>
       <c r="F355" s="5"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,7 +6451,7 @@
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
-      <c r="E356" s="5"/>
+      <c r="E356" s="21"/>
       <c r="F356" s="5"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -5399,7 +6459,7 @@
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
-      <c r="E357" s="5"/>
+      <c r="E357" s="21"/>
       <c r="F357" s="5"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
@@ -5407,7 +6467,7 @@
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
-      <c r="E358" s="5"/>
+      <c r="E358" s="21"/>
       <c r="F358" s="5"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
@@ -5415,7 +6475,7 @@
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
-      <c r="E359" s="5"/>
+      <c r="E359" s="21"/>
       <c r="F359" s="5"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
@@ -5423,7 +6483,7 @@
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
-      <c r="E360" s="5"/>
+      <c r="E360" s="21"/>
       <c r="F360" s="5"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -5431,7 +6491,7 @@
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
-      <c r="E361" s="5"/>
+      <c r="E361" s="21"/>
       <c r="F361" s="5"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -5439,7 +6499,7 @@
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
-      <c r="E362" s="5"/>
+      <c r="E362" s="21"/>
       <c r="F362" s="5"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -5447,7 +6507,7 @@
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
-      <c r="E363" s="5"/>
+      <c r="E363" s="21"/>
       <c r="F363" s="5"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -5455,7 +6515,7 @@
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
-      <c r="E364" s="5"/>
+      <c r="E364" s="21"/>
       <c r="F364" s="5"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -5463,7 +6523,7 @@
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
-      <c r="E365" s="5"/>
+      <c r="E365" s="21"/>
       <c r="F365" s="5"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -5471,7 +6531,7 @@
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
-      <c r="E366" s="5"/>
+      <c r="E366" s="21"/>
       <c r="F366" s="5"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -5479,7 +6539,7 @@
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
-      <c r="E367" s="5"/>
+      <c r="E367" s="21"/>
       <c r="F367" s="5"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -5487,7 +6547,7 @@
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
-      <c r="E368" s="5"/>
+      <c r="E368" s="21"/>
       <c r="F368" s="5"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -5495,7 +6555,7 @@
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
-      <c r="E369" s="5"/>
+      <c r="E369" s="21"/>
       <c r="F369" s="5"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -5503,7 +6563,7 @@
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
-      <c r="E370" s="5"/>
+      <c r="E370" s="21"/>
       <c r="F370" s="5"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -5511,7 +6571,7 @@
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
-      <c r="E371" s="5"/>
+      <c r="E371" s="21"/>
       <c r="F371" s="5"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -5519,7 +6579,7 @@
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
-      <c r="E372" s="5"/>
+      <c r="E372" s="21"/>
       <c r="F372" s="5"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -5527,7 +6587,7 @@
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
-      <c r="E373" s="5"/>
+      <c r="E373" s="21"/>
       <c r="F373" s="5"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -5535,7 +6595,7 @@
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
-      <c r="E374" s="5"/>
+      <c r="E374" s="21"/>
       <c r="F374" s="5"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -5543,7 +6603,7 @@
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
-      <c r="E375" s="5"/>
+      <c r="E375" s="21"/>
       <c r="F375" s="5"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -5551,7 +6611,7 @@
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
-      <c r="E376" s="5"/>
+      <c r="E376" s="21"/>
       <c r="F376" s="5"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
@@ -5559,7 +6619,7 @@
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
-      <c r="E377" s="5"/>
+      <c r="E377" s="21"/>
       <c r="F377" s="5"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
@@ -5567,7 +6627,7 @@
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
-      <c r="E378" s="5"/>
+      <c r="E378" s="21"/>
       <c r="F378" s="5"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
@@ -5575,7 +6635,7 @@
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
-      <c r="E379" s="5"/>
+      <c r="E379" s="21"/>
       <c r="F379" s="5"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
@@ -5583,7 +6643,7 @@
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
-      <c r="E380" s="5"/>
+      <c r="E380" s="21"/>
       <c r="F380" s="5"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,7 +6651,7 @@
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
-      <c r="E381" s="5"/>
+      <c r="E381" s="21"/>
       <c r="F381" s="5"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
@@ -5599,7 +6659,7 @@
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
-      <c r="E382" s="5"/>
+      <c r="E382" s="21"/>
       <c r="F382" s="5"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
@@ -5607,7 +6667,7 @@
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
-      <c r="E383" s="5"/>
+      <c r="E383" s="21"/>
       <c r="F383" s="5"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
@@ -5615,7 +6675,7 @@
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
-      <c r="E384" s="5"/>
+      <c r="E384" s="21"/>
       <c r="F384" s="5"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -5623,7 +6683,7 @@
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
-      <c r="E385" s="5"/>
+      <c r="E385" s="21"/>
       <c r="F385" s="5"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.3">
@@ -5631,7 +6691,7 @@
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
-      <c r="E386" s="5"/>
+      <c r="E386" s="21"/>
       <c r="F386" s="5"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -5639,7 +6699,7 @@
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
-      <c r="E387" s="5"/>
+      <c r="E387" s="21"/>
       <c r="F387" s="5"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -5647,7 +6707,7 @@
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
-      <c r="E388" s="5"/>
+      <c r="E388" s="21"/>
       <c r="F388" s="5"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.3">
@@ -5655,7 +6715,7 @@
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
-      <c r="E389" s="5"/>
+      <c r="E389" s="21"/>
       <c r="F389" s="5"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -5663,7 +6723,7 @@
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
-      <c r="E390" s="5"/>
+      <c r="E390" s="21"/>
       <c r="F390" s="5"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -5671,7 +6731,7 @@
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
-      <c r="E391" s="5"/>
+      <c r="E391" s="21"/>
       <c r="F391" s="5"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.3">
@@ -5679,7 +6739,7 @@
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
-      <c r="E392" s="5"/>
+      <c r="E392" s="21"/>
       <c r="F392" s="5"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.3">
@@ -5687,7 +6747,7 @@
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
-      <c r="E393" s="5"/>
+      <c r="E393" s="21"/>
       <c r="F393" s="5"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -5695,7 +6755,7 @@
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
-      <c r="E394" s="5"/>
+      <c r="E394" s="21"/>
       <c r="F394" s="5"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.3">
@@ -5703,7 +6763,7 @@
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
-      <c r="E395" s="5"/>
+      <c r="E395" s="21"/>
       <c r="F395" s="5"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -5711,7 +6771,7 @@
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
-      <c r="E396" s="5"/>
+      <c r="E396" s="21"/>
       <c r="F396" s="5"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.3">
@@ -5719,7 +6779,7 @@
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
-      <c r="E397" s="5"/>
+      <c r="E397" s="21"/>
       <c r="F397" s="5"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -5727,7 +6787,7 @@
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
-      <c r="E398" s="5"/>
+      <c r="E398" s="21"/>
       <c r="F398" s="5"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.3">
@@ -5735,7 +6795,7 @@
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
-      <c r="E399" s="5"/>
+      <c r="E399" s="21"/>
       <c r="F399" s="5"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -5743,7 +6803,7 @@
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
-      <c r="E400" s="5"/>
+      <c r="E400" s="21"/>
       <c r="F400" s="5"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.3">
@@ -5751,7 +6811,7 @@
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
-      <c r="E401" s="5"/>
+      <c r="E401" s="21"/>
       <c r="F401" s="5"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.3">
@@ -5759,7 +6819,7 @@
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
-      <c r="E402" s="5"/>
+      <c r="E402" s="21"/>
       <c r="F402" s="5"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -5767,7 +6827,7 @@
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
-      <c r="E403" s="5"/>
+      <c r="E403" s="21"/>
       <c r="F403" s="5"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.3">
@@ -5775,7 +6835,7 @@
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="5"/>
+      <c r="E404" s="21"/>
       <c r="F404" s="5"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -5783,7 +6843,7 @@
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
-      <c r="E405" s="5"/>
+      <c r="E405" s="21"/>
       <c r="F405" s="5"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -5791,7 +6851,7 @@
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
-      <c r="E406" s="5"/>
+      <c r="E406" s="21"/>
       <c r="F406" s="5"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.3">
@@ -5799,7 +6859,7 @@
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
-      <c r="E407" s="5"/>
+      <c r="E407" s="21"/>
       <c r="F407" s="5"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.3">
@@ -5807,7 +6867,7 @@
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
-      <c r="E408" s="5"/>
+      <c r="E408" s="21"/>
       <c r="F408" s="5"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -5815,7 +6875,7 @@
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
+      <c r="E409" s="21"/>
       <c r="F409" s="5"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.3">
@@ -5823,7 +6883,7 @@
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
+      <c r="E410" s="21"/>
       <c r="F410" s="5"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.3">
@@ -5831,7 +6891,7 @@
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
+      <c r="E411" s="21"/>
       <c r="F411" s="5"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -5839,7 +6899,7 @@
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
+      <c r="E412" s="21"/>
       <c r="F412" s="5"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -5847,7 +6907,7 @@
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
+      <c r="E413" s="21"/>
       <c r="F413" s="5"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -5855,7 +6915,7 @@
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
+      <c r="E414" s="21"/>
       <c r="F414" s="5"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -5863,7 +6923,7 @@
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
+      <c r="E415" s="21"/>
       <c r="F415" s="5"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.3">
@@ -5871,7 +6931,7 @@
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
+      <c r="E416" s="21"/>
       <c r="F416" s="5"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -5879,7 +6939,7 @@
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
+      <c r="E417" s="21"/>
       <c r="F417" s="5"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -5887,7 +6947,7 @@
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
+      <c r="E418" s="21"/>
       <c r="F418" s="5"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -5895,7 +6955,7 @@
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
+      <c r="E419" s="21"/>
       <c r="F419" s="5"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -5903,7 +6963,7 @@
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
+      <c r="E420" s="21"/>
       <c r="F420" s="5"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
@@ -5911,7 +6971,7 @@
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
-      <c r="E421" s="5"/>
+      <c r="E421" s="21"/>
       <c r="F421" s="5"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -5919,7 +6979,7 @@
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
-      <c r="E422" s="5"/>
+      <c r="E422" s="21"/>
       <c r="F422" s="5"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.3">
@@ -5927,7 +6987,7 @@
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
-      <c r="E423" s="5"/>
+      <c r="E423" s="21"/>
       <c r="F423" s="5"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.3">
@@ -5935,7 +6995,7 @@
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
-      <c r="E424" s="5"/>
+      <c r="E424" s="21"/>
       <c r="F424" s="5"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.3">
@@ -5943,7 +7003,7 @@
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
-      <c r="E425" s="5"/>
+      <c r="E425" s="21"/>
       <c r="F425" s="5"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -5951,7 +7011,7 @@
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
-      <c r="E426" s="5"/>
+      <c r="E426" s="21"/>
       <c r="F426" s="5"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.3">
@@ -5959,7 +7019,7 @@
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
-      <c r="E427" s="5"/>
+      <c r="E427" s="21"/>
       <c r="F427" s="5"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -5967,7 +7027,7 @@
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
-      <c r="E428" s="5"/>
+      <c r="E428" s="21"/>
       <c r="F428" s="5"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -5975,7 +7035,7 @@
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
-      <c r="E429" s="5"/>
+      <c r="E429" s="21"/>
       <c r="F429" s="5"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.3">
@@ -5983,7 +7043,7 @@
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
-      <c r="E430" s="5"/>
+      <c r="E430" s="21"/>
       <c r="F430" s="5"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.3">
@@ -5991,7 +7051,7 @@
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
-      <c r="E431" s="5"/>
+      <c r="E431" s="21"/>
       <c r="F431" s="5"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
@@ -5999,7 +7059,7 @@
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
-      <c r="E432" s="5"/>
+      <c r="E432" s="21"/>
       <c r="F432" s="5"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -6007,7 +7067,7 @@
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
-      <c r="E433" s="5"/>
+      <c r="E433" s="21"/>
       <c r="F433" s="5"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -6015,7 +7075,7 @@
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
-      <c r="E434" s="5"/>
+      <c r="E434" s="21"/>
       <c r="F434" s="5"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.3">
@@ -6023,7 +7083,7 @@
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
-      <c r="E435" s="5"/>
+      <c r="E435" s="21"/>
       <c r="F435" s="5"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -6031,7 +7091,7 @@
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
-      <c r="E436" s="5"/>
+      <c r="E436" s="21"/>
       <c r="F436" s="5"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
@@ -6039,7 +7099,7 @@
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
-      <c r="E437" s="5"/>
+      <c r="E437" s="21"/>
       <c r="F437" s="5"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
@@ -6047,7 +7107,7 @@
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
-      <c r="E438" s="5"/>
+      <c r="E438" s="21"/>
       <c r="F438" s="5"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.3">
@@ -6055,7 +7115,7 @@
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
-      <c r="E439" s="5"/>
+      <c r="E439" s="21"/>
       <c r="F439" s="5"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.3">
@@ -6063,7 +7123,7 @@
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
-      <c r="E440" s="5"/>
+      <c r="E440" s="21"/>
       <c r="F440" s="5"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
@@ -6071,7 +7131,7 @@
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
-      <c r="E441" s="5"/>
+      <c r="E441" s="21"/>
       <c r="F441" s="5"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
@@ -6079,7 +7139,7 @@
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
-      <c r="E442" s="5"/>
+      <c r="E442" s="21"/>
       <c r="F442" s="5"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.3">
@@ -6087,7 +7147,7 @@
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
-      <c r="E443" s="5"/>
+      <c r="E443" s="21"/>
       <c r="F443" s="5"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.3">
@@ -6095,7 +7155,7 @@
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
-      <c r="E444" s="5"/>
+      <c r="E444" s="21"/>
       <c r="F444" s="5"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -6103,7 +7163,7 @@
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
-      <c r="E445" s="5"/>
+      <c r="E445" s="21"/>
       <c r="F445" s="5"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.3">
@@ -6111,7 +7171,7 @@
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
-      <c r="E446" s="5"/>
+      <c r="E446" s="21"/>
       <c r="F446" s="5"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.3">
@@ -6119,7 +7179,7 @@
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
-      <c r="E447" s="5"/>
+      <c r="E447" s="21"/>
       <c r="F447" s="5"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
@@ -6132,6 +7192,7 @@
       <c r="A450" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bois\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bois\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBCDB76-0C63-4C50-AE18-9C8CAD8F0B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578EBAA7-0E11-42C3-BDCF-6F2F88C3BB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="461">
   <si>
     <t>path</t>
   </si>
@@ -1371,6 +1371,54 @@
   </si>
   <si>
     <t>31099106</t>
+  </si>
+  <si>
+    <t>galerie/toupret-enduit-rebouchage-pate.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-wood-finish.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-hard-wood.png</t>
+  </si>
+  <si>
+    <t>galerie/toupret-repar-wood.png</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-blanc.jpg</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-chene-clair.jpg</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-chene-fonce.jpg</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-chene-moyen.jpg</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-naturel.jpg</t>
+  </si>
+  <si>
+    <t>galerie/pate-a-bois-50g-noyer.jpg</t>
+  </si>
+  <si>
+    <t>330ml</t>
+  </si>
+  <si>
+    <t>400g</t>
+  </si>
+  <si>
+    <t>1kg</t>
+  </si>
+  <si>
+    <t>80ml</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>50g</t>
   </si>
 </sst>
 </file>
@@ -1893,12 +1941,12 @@
   <dimension ref="A1:G450"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="G153" sqref="G153"/>
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -4712,11 +4760,15 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="5"/>
+      <c r="A150" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="B150" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="C150" s="5"/>
+      <c r="C150" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="D150" s="26">
         <v>7.8</v>
       </c>
@@ -4728,10 +4780,15 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="5"/>
+      <c r="A151" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="B151" s="13" t="s">
         <v>425</v>
       </c>
+      <c r="C151" s="2" t="s">
+        <v>456</v>
+      </c>
       <c r="D151" s="25">
         <v>18.150000000000002</v>
       </c>
@@ -4743,11 +4800,15 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="5"/>
+      <c r="A152" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="B152" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="C152" s="5"/>
+      <c r="C152" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="D152" s="30">
         <v>23.8</v>
       </c>
@@ -4759,11 +4820,15 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="5"/>
+      <c r="A153" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="B153" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="C153" s="5"/>
+      <c r="C153" s="5" t="s">
+        <v>457</v>
+      </c>
       <c r="D153" s="32">
         <v>18.22</v>
       </c>
@@ -4775,11 +4840,15 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="5"/>
+      <c r="A154" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="B154" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D154" s="35">
         <v>9.82</v>
       </c>
@@ -4791,11 +4860,15 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
+      <c r="A155" s="5" t="s">
+        <v>452</v>
+      </c>
       <c r="B155" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C155" s="5"/>
+      <c r="C155" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D155" s="35">
         <v>9.82</v>
       </c>
@@ -4807,11 +4880,15 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="5"/>
+      <c r="A156" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="B156" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C156" s="5"/>
+      <c r="C156" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D156" s="35">
         <v>9.82</v>
       </c>
@@ -4823,11 +4900,15 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
+      <c r="A157" s="5" t="s">
+        <v>454</v>
+      </c>
       <c r="B157" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C157" s="5"/>
+      <c r="C157" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D157" s="35">
         <v>9.82</v>
       </c>
@@ -4839,11 +4920,15 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
+      <c r="A158" s="5" t="s">
+        <v>451</v>
+      </c>
       <c r="B158" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D158" s="35">
         <v>9.82</v>
       </c>
@@ -4855,11 +4940,15 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="5"/>
+      <c r="A159" s="5" t="s">
+        <v>453</v>
+      </c>
       <c r="B159" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C159" s="5"/>
+      <c r="C159" s="5" t="s">
+        <v>460</v>
+      </c>
       <c r="D159" s="35">
         <v>9.82</v>
       </c>
@@ -4871,11 +4960,15 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="5"/>
+      <c r="A160" s="5" t="s">
+        <v>450</v>
+      </c>
       <c r="B160" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C160" s="5"/>
+      <c r="C160" s="5" t="s">
+        <v>458</v>
+      </c>
       <c r="D160" s="35">
         <v>6.3</v>
       </c>
